--- a/additional/OneBlue/Trials Sep 18 2020.xlsx
+++ b/additional/OneBlue/Trials Sep 18 2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1478" yWindow="428" windowWidth="27690" windowHeight="12278"/>
+    <workbookView xWindow="1478" yWindow="428" windowWidth="15803" windowHeight="9615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,7 +379,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -778,6 +784,12 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1260,11 +1272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="155584384"/>
-        <c:axId val="155582464"/>
+        <c:axId val="311269632"/>
+        <c:axId val="311287808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155584384"/>
+        <c:axId val="311269632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1274,12 +1286,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155582464"/>
+        <c:crossAx val="311287808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155582464"/>
+        <c:axId val="311287808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1302,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155584384"/>
+        <c:crossAx val="311269632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1933,11 +1945,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="35540992"/>
-        <c:axId val="35494144"/>
+        <c:axId val="311075968"/>
+        <c:axId val="311077888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="35540992"/>
+        <c:axId val="311075968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1966,12 +1978,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35494144"/>
+        <c:crossAx val="311077888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="35494144"/>
+        <c:axId val="311077888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2001,7 +2013,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="35540992"/>
+        <c:crossAx val="311075968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2954,11 +2966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143992704"/>
-        <c:axId val="143994240"/>
+        <c:axId val="312019584"/>
+        <c:axId val="312058624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143992704"/>
+        <c:axId val="312019584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143994240"/>
+        <c:crossAx val="312058624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2994,7 +3006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143994240"/>
+        <c:axId val="312058624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143992704"/>
+        <c:crossAx val="312019584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4131,11 +4143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="145890688"/>
-        <c:axId val="145901056"/>
+        <c:axId val="312177408"/>
+        <c:axId val="312179328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="145890688"/>
+        <c:axId val="312177408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,7 +4175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145901056"/>
+        <c:crossAx val="312179328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4171,7 +4183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145901056"/>
+        <c:axId val="312179328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4207,7 +4219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145890688"/>
+        <c:crossAx val="312177408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4690,11 +4702,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="140828032"/>
-        <c:axId val="140895360"/>
+        <c:axId val="312377728"/>
+        <c:axId val="312379264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="140828032"/>
+        <c:axId val="312377728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4703,7 +4715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140895360"/>
+        <c:crossAx val="312379264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4711,7 +4723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140895360"/>
+        <c:axId val="312379264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4722,7 +4734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140828032"/>
+        <c:crossAx val="312377728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5422,9 +5434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AV131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R96" sqref="R96"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="A1:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5445,16 +5457,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="51" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="11" t="s">
@@ -6569,23 +6581,23 @@
         <v>2058</v>
       </c>
       <c r="K27" s="8">
-        <f>F27/10</f>
+        <f t="shared" ref="K27:K35" si="0">F27/10</f>
         <v>77.900000000000006</v>
       </c>
       <c r="L27" s="8">
-        <f>G27/20</f>
+        <f t="shared" ref="L27:L35" si="1">G27/20</f>
         <v>54.4</v>
       </c>
       <c r="M27" s="8">
-        <f>H27/30</f>
+        <f t="shared" ref="M27:M35" si="2">H27/30</f>
         <v>43.1</v>
       </c>
       <c r="N27" s="8">
-        <f>I27/40</f>
+        <f t="shared" ref="N27:N35" si="3">I27/40</f>
         <v>44.95</v>
       </c>
       <c r="O27" s="8">
-        <f>J27/50</f>
+        <f t="shared" ref="O27:O35" si="4">J27/50</f>
         <v>41.16</v>
       </c>
       <c r="P27" s="22">
@@ -6624,23 +6636,23 @@
         <v>1153</v>
       </c>
       <c r="K28" s="8">
-        <f>F28/10</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="L28" s="8">
-        <f>G28/20</f>
+        <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
       <c r="M28" s="8">
-        <f>H28/30</f>
+        <f t="shared" si="2"/>
         <v>28.3</v>
       </c>
       <c r="N28" s="8">
-        <f>I28/40</f>
+        <f t="shared" si="3"/>
         <v>24.75</v>
       </c>
       <c r="O28" s="8">
-        <f>J28/50</f>
+        <f t="shared" si="4"/>
         <v>23.06</v>
       </c>
       <c r="P28" s="22">
@@ -6679,23 +6691,23 @@
         <v>672</v>
       </c>
       <c r="K29" s="8">
-        <f>F29/10</f>
+        <f t="shared" si="0"/>
         <v>23.7</v>
       </c>
       <c r="L29" s="8">
-        <f>G29/20</f>
+        <f t="shared" si="1"/>
         <v>18.95</v>
       </c>
       <c r="M29" s="8">
-        <f>H29/30</f>
+        <f t="shared" si="2"/>
         <v>15.9</v>
       </c>
       <c r="N29" s="8">
-        <f>I29/40</f>
+        <f t="shared" si="3"/>
         <v>14.324999999999999</v>
       </c>
       <c r="O29" s="8">
-        <f>J29/50</f>
+        <f t="shared" si="4"/>
         <v>13.44</v>
       </c>
       <c r="P29" s="22">
@@ -6734,23 +6746,23 @@
         <v>975</v>
       </c>
       <c r="K30" s="8">
-        <f>F30/10</f>
+        <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
       <c r="L30" s="8">
-        <f>G30/20</f>
+        <f t="shared" si="1"/>
         <v>27.9</v>
       </c>
       <c r="M30" s="8">
-        <f>H30/30</f>
+        <f t="shared" si="2"/>
         <v>24.666666666666668</v>
       </c>
       <c r="N30" s="8">
-        <f>I30/40</f>
+        <f t="shared" si="3"/>
         <v>22.125</v>
       </c>
       <c r="O30" s="8">
-        <f>J30/50</f>
+        <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
       <c r="P30" s="22">
@@ -6792,23 +6804,23 @@
         <v>798</v>
       </c>
       <c r="K31" s="8">
-        <f>F31/10</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="L31" s="8">
-        <f>G31/20</f>
+        <f t="shared" si="1"/>
         <v>30.75</v>
       </c>
       <c r="M31" s="8">
-        <f>H31/30</f>
+        <f t="shared" si="2"/>
         <v>23.7</v>
       </c>
       <c r="N31" s="8">
-        <f>I31/40</f>
+        <f t="shared" si="3"/>
         <v>18.774999999999999</v>
       </c>
       <c r="O31" s="8">
-        <f>J31/50</f>
+        <f t="shared" si="4"/>
         <v>15.96</v>
       </c>
       <c r="P31" s="22">
@@ -6847,23 +6859,23 @@
         <v>588</v>
       </c>
       <c r="K32" s="8">
-        <f>F32/10</f>
+        <f t="shared" si="0"/>
         <v>27.2</v>
       </c>
       <c r="L32" s="8">
-        <f>G32/20</f>
+        <f t="shared" si="1"/>
         <v>17.149999999999999</v>
       </c>
       <c r="M32" s="8">
-        <f>H32/30</f>
+        <f t="shared" si="2"/>
         <v>13.633333333333333</v>
       </c>
       <c r="N32" s="8">
-        <f>I32/40</f>
+        <f t="shared" si="3"/>
         <v>12.925000000000001</v>
       </c>
       <c r="O32" s="8">
-        <f>J32/50</f>
+        <f t="shared" si="4"/>
         <v>11.76</v>
       </c>
       <c r="P32" s="22">
@@ -6904,23 +6916,23 @@
         <v>391</v>
       </c>
       <c r="K33" s="8">
-        <f>F33/10</f>
+        <f t="shared" si="0"/>
         <v>15.5</v>
       </c>
       <c r="L33" s="8">
-        <f>G33/20</f>
+        <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
       <c r="M33" s="8">
-        <f>H33/30</f>
+        <f t="shared" si="2"/>
         <v>10.433333333333334</v>
       </c>
       <c r="N33" s="8">
-        <f>I33/40</f>
+        <f t="shared" si="3"/>
         <v>8.6750000000000007</v>
       </c>
       <c r="O33" s="8">
-        <f>J33/50</f>
+        <f t="shared" si="4"/>
         <v>7.82</v>
       </c>
       <c r="P33" s="22">
@@ -6964,23 +6976,23 @@
         <v>344</v>
       </c>
       <c r="K34" s="8">
-        <f>F34/10</f>
+        <f t="shared" si="0"/>
         <v>17.2</v>
       </c>
       <c r="L34" s="8">
-        <f>G34/20</f>
+        <f t="shared" si="1"/>
         <v>11.65</v>
       </c>
       <c r="M34" s="8">
-        <f>H34/30</f>
+        <f t="shared" si="2"/>
         <v>9.1</v>
       </c>
       <c r="N34" s="8">
-        <f>I34/40</f>
+        <f t="shared" si="3"/>
         <v>7.6749999999999998</v>
       </c>
       <c r="O34" s="8">
-        <f>J34/50</f>
+        <f t="shared" si="4"/>
         <v>6.88</v>
       </c>
       <c r="P34" s="22">
@@ -7104,23 +7116,23 @@
         <v>643</v>
       </c>
       <c r="K35" s="8">
-        <f>F35/10</f>
+        <f t="shared" si="0"/>
         <v>44.1</v>
       </c>
       <c r="L35" s="8">
-        <f>G35/20</f>
+        <f t="shared" si="1"/>
         <v>26.65</v>
       </c>
       <c r="M35" s="8">
-        <f>H35/30</f>
+        <f t="shared" si="2"/>
         <v>19.266666666666666</v>
       </c>
       <c r="N35" s="8">
-        <f>I35/40</f>
+        <f t="shared" si="3"/>
         <v>15.1</v>
       </c>
       <c r="O35" s="8">
-        <f>J35/50</f>
+        <f t="shared" si="4"/>
         <v>12.86</v>
       </c>
       <c r="P35" s="22">
@@ -8061,15 +8073,15 @@
         <v>15</v>
       </c>
       <c r="K47" s="9">
-        <f>F47/10</f>
+        <f t="shared" ref="K47:K64" si="5">F47/10</f>
         <v>42.1</v>
       </c>
       <c r="L47" s="9">
-        <f>G47/20</f>
+        <f t="shared" ref="L47:L64" si="6">G47/20</f>
         <v>32.15</v>
       </c>
       <c r="M47" s="9">
-        <f>H47/30</f>
+        <f t="shared" ref="M47:M64" si="7">H47/30</f>
         <v>31.066666666666666</v>
       </c>
       <c r="N47" s="37">
@@ -8118,23 +8130,23 @@
         <v>1234</v>
       </c>
       <c r="K48" s="9">
-        <f>F48/10</f>
+        <f t="shared" si="5"/>
         <v>39.9</v>
       </c>
       <c r="L48" s="9">
-        <f>G48/20</f>
+        <f t="shared" si="6"/>
         <v>28.6</v>
       </c>
       <c r="M48" s="9">
-        <f>H48/30</f>
+        <f t="shared" si="7"/>
         <v>25.633333333333333</v>
       </c>
       <c r="N48" s="9">
-        <f>I48/40</f>
+        <f t="shared" ref="N48:N64" si="8">I48/40</f>
         <v>25.95</v>
       </c>
       <c r="O48" s="9">
-        <f>J48/50</f>
+        <f t="shared" ref="O48:O64" si="9">J48/50</f>
         <v>24.68</v>
       </c>
       <c r="P48" s="31">
@@ -8170,23 +8182,23 @@
         <v>758</v>
       </c>
       <c r="K49" s="9">
-        <f>F49/10</f>
+        <f t="shared" si="5"/>
         <v>24.1</v>
       </c>
       <c r="L49" s="9">
-        <f>G49/20</f>
+        <f t="shared" si="6"/>
         <v>17.05</v>
       </c>
       <c r="M49" s="9">
-        <f>H49/30</f>
+        <f t="shared" si="7"/>
         <v>14.466666666666667</v>
       </c>
       <c r="N49" s="9">
-        <f>I49/40</f>
+        <f t="shared" si="8"/>
         <v>14.225</v>
       </c>
       <c r="O49" s="9">
-        <f>J49/50</f>
+        <f t="shared" si="9"/>
         <v>15.16</v>
       </c>
       <c r="P49" s="31">
@@ -8222,23 +8234,23 @@
         <v>652</v>
       </c>
       <c r="K50" s="9">
-        <f>F50/10</f>
+        <f t="shared" si="5"/>
         <v>22.1</v>
       </c>
       <c r="L50" s="9">
-        <f>G50/20</f>
+        <f t="shared" si="6"/>
         <v>20.2</v>
       </c>
       <c r="M50" s="9">
-        <f>H50/30</f>
+        <f t="shared" si="7"/>
         <v>16.866666666666667</v>
       </c>
       <c r="N50" s="9">
-        <f>I50/40</f>
+        <f t="shared" si="8"/>
         <v>14.225</v>
       </c>
       <c r="O50" s="9">
-        <f>J50/50</f>
+        <f t="shared" si="9"/>
         <v>13.04</v>
       </c>
       <c r="P50" s="31">
@@ -8274,23 +8286,23 @@
         <v>614</v>
       </c>
       <c r="K51" s="9">
-        <f>F51/10</f>
+        <f t="shared" si="5"/>
         <v>20.7</v>
       </c>
       <c r="L51" s="9">
-        <f>G51/20</f>
+        <f t="shared" si="6"/>
         <v>15.1</v>
       </c>
       <c r="M51" s="9">
-        <f>H51/30</f>
+        <f t="shared" si="7"/>
         <v>13.066666666666666</v>
       </c>
       <c r="N51" s="9">
-        <f>I51/40</f>
+        <f t="shared" si="8"/>
         <v>12.4</v>
       </c>
       <c r="O51" s="9">
-        <f>J51/50</f>
+        <f t="shared" si="9"/>
         <v>12.28</v>
       </c>
       <c r="P51" s="31">
@@ -8326,23 +8338,23 @@
         <v>614</v>
       </c>
       <c r="K52" s="9">
-        <f>F52/10</f>
+        <f t="shared" si="5"/>
         <v>36.9</v>
       </c>
       <c r="L52" s="9">
-        <f>G52/20</f>
+        <f t="shared" si="6"/>
         <v>23.15</v>
       </c>
       <c r="M52" s="9">
-        <f>H52/30</f>
+        <f t="shared" si="7"/>
         <v>17.133333333333333</v>
       </c>
       <c r="N52" s="9">
-        <f>I52/40</f>
+        <f t="shared" si="8"/>
         <v>14.5</v>
       </c>
       <c r="O52" s="9">
-        <f>J52/50</f>
+        <f t="shared" si="9"/>
         <v>12.28</v>
       </c>
       <c r="P52" s="31">
@@ -8378,23 +8390,23 @@
         <v>612</v>
       </c>
       <c r="K53" s="9">
-        <f>F53/10</f>
+        <f t="shared" si="5"/>
         <v>26.6</v>
       </c>
       <c r="L53" s="9">
-        <f>G53/20</f>
+        <f t="shared" si="6"/>
         <v>17.399999999999999</v>
       </c>
       <c r="M53" s="9">
-        <f>H53/30</f>
+        <f t="shared" si="7"/>
         <v>15.266666666666667</v>
       </c>
       <c r="N53" s="9">
-        <f>I53/40</f>
+        <f t="shared" si="8"/>
         <v>13.7</v>
       </c>
       <c r="O53" s="9">
-        <f>J53/50</f>
+        <f t="shared" si="9"/>
         <v>12.24</v>
       </c>
       <c r="P53" s="31">
@@ -8430,23 +8442,23 @@
         <v>538</v>
       </c>
       <c r="K54" s="9">
-        <f>F54/10</f>
+        <f t="shared" si="5"/>
         <v>28.9</v>
       </c>
       <c r="L54" s="9">
-        <f>G54/20</f>
+        <f t="shared" si="6"/>
         <v>19.100000000000001</v>
       </c>
       <c r="M54" s="9">
-        <f>H54/30</f>
+        <f t="shared" si="7"/>
         <v>15.066666666666666</v>
       </c>
       <c r="N54" s="9">
-        <f>I54/40</f>
+        <f t="shared" si="8"/>
         <v>11.8</v>
       </c>
       <c r="O54" s="9">
-        <f>J54/50</f>
+        <f t="shared" si="9"/>
         <v>10.76</v>
       </c>
       <c r="P54" s="31">
@@ -8482,23 +8494,23 @@
         <v>604</v>
       </c>
       <c r="K55" s="9">
-        <f>F55/10</f>
+        <f t="shared" si="5"/>
         <v>25.7</v>
       </c>
       <c r="L55" s="9">
-        <f>G55/20</f>
+        <f t="shared" si="6"/>
         <v>18.25</v>
       </c>
       <c r="M55" s="9">
-        <f>H55/30</f>
+        <f t="shared" si="7"/>
         <v>14.933333333333334</v>
       </c>
       <c r="N55" s="9">
-        <f>I55/40</f>
+        <f t="shared" si="8"/>
         <v>13.4</v>
       </c>
       <c r="O55" s="9">
-        <f>J55/50</f>
+        <f t="shared" si="9"/>
         <v>12.08</v>
       </c>
       <c r="P55" s="31">
@@ -8534,23 +8546,23 @@
         <v>551</v>
       </c>
       <c r="K56" s="9">
-        <f>F56/10</f>
+        <f t="shared" si="5"/>
         <v>29.7</v>
       </c>
       <c r="L56" s="9">
-        <f>G56/20</f>
+        <f t="shared" si="6"/>
         <v>18.75</v>
       </c>
       <c r="M56" s="9">
-        <f>H56/30</f>
+        <f t="shared" si="7"/>
         <v>14.666666666666666</v>
       </c>
       <c r="N56" s="9">
-        <f>I56/40</f>
+        <f t="shared" si="8"/>
         <v>12.15</v>
       </c>
       <c r="O56" s="9">
-        <f>J56/50</f>
+        <f t="shared" si="9"/>
         <v>11.02</v>
       </c>
       <c r="P56" s="31">
@@ -8586,23 +8598,23 @@
         <v>599</v>
       </c>
       <c r="K57" s="9">
-        <f>F57/10</f>
+        <f t="shared" si="5"/>
         <v>29.4</v>
       </c>
       <c r="L57" s="9">
-        <f>G57/20</f>
+        <f t="shared" si="6"/>
         <v>20.9</v>
       </c>
       <c r="M57" s="9">
-        <f>H57/30</f>
+        <f t="shared" si="7"/>
         <v>16.366666666666667</v>
       </c>
       <c r="N57" s="9">
-        <f>I57/40</f>
+        <f t="shared" si="8"/>
         <v>13.45</v>
       </c>
       <c r="O57" s="9">
-        <f>J57/50</f>
+        <f t="shared" si="9"/>
         <v>11.98</v>
       </c>
       <c r="P57" s="31">
@@ -8638,23 +8650,23 @@
         <v>270</v>
       </c>
       <c r="K58" s="9">
-        <f>F58/10</f>
+        <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
       <c r="L58" s="9">
-        <f>G58/20</f>
+        <f t="shared" si="6"/>
         <v>6.9</v>
       </c>
       <c r="M58" s="9">
-        <f>H58/30</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="N58" s="9">
-        <f>I58/40</f>
+        <f t="shared" si="8"/>
         <v>5.6</v>
       </c>
       <c r="O58" s="9">
-        <f>J58/50</f>
+        <f t="shared" si="9"/>
         <v>5.4</v>
       </c>
       <c r="P58" s="31">
@@ -8690,23 +8702,23 @@
         <v>360</v>
       </c>
       <c r="K59" s="9">
-        <f>F59/10</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="L59" s="9">
-        <f>G59/20</f>
+        <f t="shared" si="6"/>
         <v>10.85</v>
       </c>
       <c r="M59" s="9">
-        <f>H59/30</f>
+        <f t="shared" si="7"/>
         <v>8.6333333333333329</v>
       </c>
       <c r="N59" s="9">
-        <f>I59/40</f>
+        <f t="shared" si="8"/>
         <v>7.8</v>
       </c>
       <c r="O59" s="9">
-        <f>J59/50</f>
+        <f t="shared" si="9"/>
         <v>7.2</v>
       </c>
       <c r="P59" s="31">
@@ -8742,23 +8754,23 @@
         <v>287</v>
       </c>
       <c r="K60" s="9">
-        <f>F60/10</f>
+        <f t="shared" si="5"/>
         <v>14.7</v>
       </c>
       <c r="L60" s="9">
-        <f>G60/20</f>
+        <f t="shared" si="6"/>
         <v>11.15</v>
       </c>
       <c r="M60" s="9">
-        <f>H60/30</f>
+        <f t="shared" si="7"/>
         <v>8.0333333333333332</v>
       </c>
       <c r="N60" s="9">
-        <f>I60/40</f>
+        <f t="shared" si="8"/>
         <v>6.5250000000000004</v>
       </c>
       <c r="O60" s="9">
-        <f>J60/50</f>
+        <f t="shared" si="9"/>
         <v>5.74</v>
       </c>
       <c r="P60" s="31">
@@ -8794,23 +8806,23 @@
         <v>281</v>
       </c>
       <c r="K61" s="9">
-        <f>F61/10</f>
+        <f t="shared" si="5"/>
         <v>13.3</v>
       </c>
       <c r="L61" s="9">
-        <f>G61/20</f>
+        <f t="shared" si="6"/>
         <v>8.85</v>
       </c>
       <c r="M61" s="9">
-        <f>H61/30</f>
+        <f t="shared" si="7"/>
         <v>7.666666666666667</v>
       </c>
       <c r="N61" s="9">
-        <f>I61/40</f>
+        <f t="shared" si="8"/>
         <v>6.4749999999999996</v>
       </c>
       <c r="O61" s="9">
-        <f>J61/50</f>
+        <f t="shared" si="9"/>
         <v>5.62</v>
       </c>
       <c r="P61" s="31">
@@ -8846,23 +8858,23 @@
         <v>311</v>
       </c>
       <c r="K62" s="9">
-        <f>F62/10</f>
+        <f t="shared" si="5"/>
         <v>19.399999999999999</v>
       </c>
       <c r="L62" s="9">
-        <f>G62/20</f>
+        <f t="shared" si="6"/>
         <v>11.65</v>
       </c>
       <c r="M62" s="9">
-        <f>H62/30</f>
+        <f t="shared" si="7"/>
         <v>9.1666666666666661</v>
       </c>
       <c r="N62" s="9">
-        <f>I62/40</f>
+        <f t="shared" si="8"/>
         <v>7.375</v>
       </c>
       <c r="O62" s="9">
-        <f>J62/50</f>
+        <f t="shared" si="9"/>
         <v>6.22</v>
       </c>
       <c r="P62" s="31">
@@ -8898,23 +8910,23 @@
         <v>266</v>
       </c>
       <c r="K63" s="9">
-        <f>F63/10</f>
+        <f t="shared" si="5"/>
         <v>13.5</v>
       </c>
       <c r="L63" s="9">
-        <f>G63/20</f>
+        <f t="shared" si="6"/>
         <v>9.0500000000000007</v>
       </c>
       <c r="M63" s="9">
-        <f>H63/30</f>
+        <f t="shared" si="7"/>
         <v>7.2666666666666666</v>
       </c>
       <c r="N63" s="9">
-        <f>I63/40</f>
+        <f t="shared" si="8"/>
         <v>6.125</v>
       </c>
       <c r="O63" s="9">
-        <f>J63/50</f>
+        <f t="shared" si="9"/>
         <v>5.32</v>
       </c>
       <c r="P63" s="31">
@@ -8950,23 +8962,23 @@
         <v>240</v>
       </c>
       <c r="K64" s="9">
-        <f>F64/10</f>
+        <f t="shared" si="5"/>
         <v>12.1</v>
       </c>
       <c r="L64" s="9">
-        <f>G64/20</f>
+        <f t="shared" si="6"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="M64" s="9">
-        <f>H64/30</f>
+        <f t="shared" si="7"/>
         <v>6.9333333333333336</v>
       </c>
       <c r="N64" s="9">
-        <f>I64/40</f>
+        <f t="shared" si="8"/>
         <v>5.7</v>
       </c>
       <c r="O64" s="9">
-        <f>J64/50</f>
+        <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
       <c r="P64" s="31">
@@ -9248,7 +9260,7 @@
         <v>2106</v>
       </c>
       <c r="K71" s="9">
-        <f>F71/10</f>
+        <f t="shared" ref="K71:K84" si="10">F71/10</f>
         <v>38.299999999999997</v>
       </c>
       <c r="L71" s="9">
@@ -9296,7 +9308,7 @@
       <c r="I72" s="33"/>
       <c r="J72" s="33"/>
       <c r="K72" s="9">
-        <f>F72/10</f>
+        <f t="shared" si="10"/>
         <v>55.9</v>
       </c>
       <c r="L72" s="37">
@@ -9349,23 +9361,23 @@
         <v>1389</v>
       </c>
       <c r="K73" s="9">
-        <f>F73/10</f>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="L73" s="9">
-        <f>G73/20</f>
+        <f t="shared" ref="L73:L83" si="11">G73/20</f>
         <v>25</v>
       </c>
       <c r="M73" s="9">
-        <f>H73/30</f>
+        <f t="shared" ref="M73:M83" si="12">H73/30</f>
         <v>27.066666666666666</v>
       </c>
       <c r="N73" s="9">
-        <f>I73/40</f>
+        <f t="shared" ref="N73:N83" si="13">I73/40</f>
         <v>28.65</v>
       </c>
       <c r="O73" s="9">
-        <f>J73/50</f>
+        <f t="shared" ref="O73:O83" si="14">J73/50</f>
         <v>27.78</v>
       </c>
       <c r="P73" s="3">
@@ -9376,19 +9388,19 @@
         <v>37.325000000000003</v>
       </c>
       <c r="R73" s="46">
-        <f t="shared" ref="R73:U73" si="0">AVERAGE(L73:L76)</f>
+        <f t="shared" ref="R73:U73" si="15">AVERAGE(L73:L76)</f>
         <v>31.224999999999998</v>
       </c>
       <c r="S73" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>27.708333333333336</v>
       </c>
       <c r="T73" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>26.618749999999999</v>
       </c>
       <c r="U73" s="46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="15"/>
         <v>24.790000000000003</v>
       </c>
     </row>
@@ -9421,23 +9433,23 @@
         <v>974</v>
       </c>
       <c r="K74" s="9">
-        <f>F74/10</f>
+        <f t="shared" si="10"/>
         <v>28.7</v>
       </c>
       <c r="L74" s="9">
-        <f>G74/20</f>
+        <f t="shared" si="11"/>
         <v>23.5</v>
       </c>
       <c r="M74" s="9">
-        <f>H74/30</f>
+        <f t="shared" si="12"/>
         <v>20.433333333333334</v>
       </c>
       <c r="N74" s="9">
-        <f>I74/40</f>
+        <f t="shared" si="13"/>
         <v>20.975000000000001</v>
       </c>
       <c r="O74" s="9">
-        <f>J74/50</f>
+        <f t="shared" si="14"/>
         <v>19.48</v>
       </c>
       <c r="P74" s="3">
@@ -9473,23 +9485,23 @@
         <v>1474</v>
       </c>
       <c r="K75" s="9">
-        <f>F75/10</f>
+        <f t="shared" si="10"/>
         <v>50.7</v>
       </c>
       <c r="L75" s="9">
-        <f>G75/20</f>
+        <f t="shared" si="11"/>
         <v>39.6</v>
       </c>
       <c r="M75" s="9">
-        <f>H75/30</f>
+        <f t="shared" si="12"/>
         <v>32.333333333333336</v>
       </c>
       <c r="N75" s="9">
-        <f>I75/40</f>
+        <f t="shared" si="13"/>
         <v>30.2</v>
       </c>
       <c r="O75" s="9">
-        <f>J75/50</f>
+        <f t="shared" si="14"/>
         <v>29.48</v>
       </c>
       <c r="P75" s="3">
@@ -9525,23 +9537,23 @@
         <v>1121</v>
       </c>
       <c r="K76" s="9">
-        <f>F76/10</f>
+        <f t="shared" si="10"/>
         <v>39.9</v>
       </c>
       <c r="L76" s="9">
-        <f>G76/20</f>
+        <f t="shared" si="11"/>
         <v>36.799999999999997</v>
       </c>
       <c r="M76" s="9">
-        <f>H76/30</f>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="N76" s="9">
-        <f>I76/40</f>
+        <f t="shared" si="13"/>
         <v>26.65</v>
       </c>
       <c r="O76" s="9">
-        <f>J76/50</f>
+        <f t="shared" si="14"/>
         <v>22.42</v>
       </c>
       <c r="P76" s="3">
@@ -9577,23 +9589,23 @@
         <v>914</v>
       </c>
       <c r="K77" s="9">
-        <f>F77/10</f>
+        <f t="shared" si="10"/>
         <v>27.9</v>
       </c>
       <c r="L77" s="9">
-        <f>G77/20</f>
+        <f t="shared" si="11"/>
         <v>19.899999999999999</v>
       </c>
       <c r="M77" s="9">
-        <f>H77/30</f>
+        <f t="shared" si="12"/>
         <v>20.733333333333334</v>
       </c>
       <c r="N77" s="9">
-        <f>I77/40</f>
+        <f t="shared" si="13"/>
         <v>19.149999999999999</v>
       </c>
       <c r="O77" s="9">
-        <f>J77/50</f>
+        <f t="shared" si="14"/>
         <v>18.28</v>
       </c>
       <c r="P77" s="3">
@@ -9629,23 +9641,23 @@
         <v>816</v>
       </c>
       <c r="K78" s="9">
-        <f>F78/10</f>
+        <f t="shared" si="10"/>
         <v>27.1</v>
       </c>
       <c r="L78" s="9">
-        <f>G78/20</f>
+        <f t="shared" si="11"/>
         <v>21.3</v>
       </c>
       <c r="M78" s="9">
-        <f>H78/30</f>
+        <f t="shared" si="12"/>
         <v>18.466666666666665</v>
       </c>
       <c r="N78" s="9">
-        <f>I78/40</f>
+        <f t="shared" si="13"/>
         <v>16.425000000000001</v>
       </c>
       <c r="O78" s="9">
-        <f>J78/50</f>
+        <f t="shared" si="14"/>
         <v>16.32</v>
       </c>
       <c r="P78" s="3">
@@ -9681,23 +9693,23 @@
         <v>801</v>
       </c>
       <c r="K79" s="9">
-        <f>F79/10</f>
+        <f t="shared" si="10"/>
         <v>27.7</v>
       </c>
       <c r="L79" s="9">
-        <f>G79/20</f>
+        <f t="shared" si="11"/>
         <v>22.4</v>
       </c>
       <c r="M79" s="9">
-        <f>H79/30</f>
+        <f t="shared" si="12"/>
         <v>17.966666666666665</v>
       </c>
       <c r="N79" s="9">
-        <f>I79/40</f>
+        <f t="shared" si="13"/>
         <v>17.55</v>
       </c>
       <c r="O79" s="9">
-        <f>J79/50</f>
+        <f t="shared" si="14"/>
         <v>16.02</v>
       </c>
       <c r="P79" s="3">
@@ -9733,23 +9745,23 @@
         <v>563</v>
       </c>
       <c r="K80" s="9">
-        <f>F80/10</f>
+        <f t="shared" si="10"/>
         <v>21.7</v>
       </c>
       <c r="L80" s="9">
-        <f>G80/20</f>
+        <f t="shared" si="11"/>
         <v>14.85</v>
       </c>
       <c r="M80" s="9">
-        <f>H80/30</f>
+        <f t="shared" si="12"/>
         <v>12.933333333333334</v>
       </c>
       <c r="N80" s="9">
-        <f>I80/40</f>
+        <f t="shared" si="13"/>
         <v>11.9</v>
       </c>
       <c r="O80" s="9">
-        <f>J80/50</f>
+        <f t="shared" si="14"/>
         <v>11.26</v>
       </c>
       <c r="P80" s="3">
@@ -9785,23 +9797,23 @@
         <v>411</v>
       </c>
       <c r="K81" s="9">
-        <f>F81/10</f>
+        <f t="shared" si="10"/>
         <v>17.399999999999999</v>
       </c>
       <c r="L81" s="9">
-        <f>G81/20</f>
+        <f t="shared" si="11"/>
         <v>11.85</v>
       </c>
       <c r="M81" s="9">
-        <f>H81/30</f>
+        <f t="shared" si="12"/>
         <v>10.166666666666666</v>
       </c>
       <c r="N81" s="9">
-        <f>I81/40</f>
+        <f t="shared" si="13"/>
         <v>8.4250000000000007</v>
       </c>
       <c r="O81" s="9">
-        <f>J81/50</f>
+        <f t="shared" si="14"/>
         <v>8.2200000000000006</v>
       </c>
       <c r="P81" s="3">
@@ -9837,23 +9849,23 @@
         <v>327</v>
       </c>
       <c r="K82" s="9">
-        <f>F82/10</f>
+        <f t="shared" si="10"/>
         <v>11.9</v>
       </c>
       <c r="L82" s="9">
-        <f>G82/20</f>
+        <f t="shared" si="11"/>
         <v>9.5</v>
       </c>
       <c r="M82" s="9">
-        <f>H82/30</f>
+        <f t="shared" si="12"/>
         <v>7.6333333333333337</v>
       </c>
       <c r="N82" s="9">
-        <f>I82/40</f>
+        <f t="shared" si="13"/>
         <v>6.9</v>
       </c>
       <c r="O82" s="9">
-        <f>J82/50</f>
+        <f t="shared" si="14"/>
         <v>6.54</v>
       </c>
       <c r="P82" s="3">
@@ -9889,23 +9901,23 @@
         <v>311</v>
       </c>
       <c r="K83" s="9">
-        <f>F83/10</f>
+        <f t="shared" si="10"/>
         <v>11.6</v>
       </c>
       <c r="L83" s="9">
-        <f>G83/20</f>
+        <f t="shared" si="11"/>
         <v>9.0500000000000007</v>
       </c>
       <c r="M83" s="9">
-        <f>H83/30</f>
+        <f t="shared" si="12"/>
         <v>7.7</v>
       </c>
       <c r="N83" s="9">
-        <f>I83/40</f>
+        <f t="shared" si="13"/>
         <v>7.15</v>
       </c>
       <c r="O83" s="9">
-        <f>J83/50</f>
+        <f t="shared" si="14"/>
         <v>6.22</v>
       </c>
       <c r="P83" s="3">
@@ -9937,7 +9949,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="9">
-        <f>F84/10</f>
+        <f t="shared" si="10"/>
         <v>61.2</v>
       </c>
       <c r="L84" s="9">
@@ -10252,19 +10264,19 @@
         <v>49</v>
       </c>
       <c r="K89" s="9">
-        <f>F89/10</f>
+        <f t="shared" ref="K89:K103" si="16">F89/10</f>
         <v>33.4</v>
       </c>
       <c r="L89" s="9">
-        <f>G89/20</f>
+        <f t="shared" ref="L89:L103" si="17">G89/20</f>
         <v>27.35</v>
       </c>
       <c r="M89" s="9">
-        <f>H89/30</f>
+        <f t="shared" ref="M89:M103" si="18">H89/30</f>
         <v>22.366666666666667</v>
       </c>
       <c r="N89" s="9">
-        <f>I89/40</f>
+        <f t="shared" ref="N89:N103" si="19">I89/40</f>
         <v>24</v>
       </c>
       <c r="O89" s="9">
@@ -10343,23 +10355,23 @@
         <v>986</v>
       </c>
       <c r="K90" s="9">
-        <f>F90/10</f>
+        <f t="shared" si="16"/>
         <v>46.1</v>
       </c>
       <c r="L90" s="9">
-        <f>G90/20</f>
+        <f t="shared" si="17"/>
         <v>34.85</v>
       </c>
       <c r="M90" s="9">
-        <f>H90/30</f>
+        <f t="shared" si="18"/>
         <v>27.7</v>
       </c>
       <c r="N90" s="9">
-        <f>I90/40</f>
+        <f t="shared" si="19"/>
         <v>21.5</v>
       </c>
       <c r="O90" s="9">
-        <f>J90/50</f>
+        <f t="shared" ref="O90:O103" si="20">J90/50</f>
         <v>19.72</v>
       </c>
       <c r="P90" s="3">
@@ -10428,23 +10440,23 @@
         <v>887</v>
       </c>
       <c r="K91" s="9">
-        <f>F91/10</f>
+        <f t="shared" si="16"/>
         <v>24.9</v>
       </c>
       <c r="L91" s="9">
-        <f>G91/20</f>
+        <f t="shared" si="17"/>
         <v>19.25</v>
       </c>
       <c r="M91" s="9">
-        <f>H91/30</f>
+        <f t="shared" si="18"/>
         <v>20.8</v>
       </c>
       <c r="N91" s="9">
-        <f>I91/40</f>
+        <f t="shared" si="19"/>
         <v>19.7</v>
       </c>
       <c r="O91" s="9">
-        <f>J91/50</f>
+        <f t="shared" si="20"/>
         <v>17.739999999999998</v>
       </c>
       <c r="P91" s="3">
@@ -10513,23 +10525,23 @@
         <v>1215</v>
       </c>
       <c r="K92" s="9">
-        <f>F92/10</f>
+        <f t="shared" si="16"/>
         <v>30.2</v>
       </c>
       <c r="L92" s="9">
-        <f>G92/20</f>
+        <f t="shared" si="17"/>
         <v>22.75</v>
       </c>
       <c r="M92" s="9">
-        <f>H92/30</f>
+        <f t="shared" si="18"/>
         <v>24.5</v>
       </c>
       <c r="N92" s="9">
-        <f>I92/40</f>
+        <f t="shared" si="19"/>
         <v>26.625</v>
       </c>
       <c r="O92" s="9">
-        <f>J92/50</f>
+        <f t="shared" si="20"/>
         <v>24.3</v>
       </c>
       <c r="P92" s="3">
@@ -10541,16 +10553,16 @@
       </c>
     </row>
     <row r="93" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B93" s="1">
+      <c r="B93" s="51">
         <v>100</v>
       </c>
-      <c r="C93" s="1">
+      <c r="C93" s="51">
         <v>5</v>
       </c>
-      <c r="D93" s="46">
+      <c r="D93" s="52">
         <v>1</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="51">
         <v>25</v>
       </c>
       <c r="F93" s="2">
@@ -10569,23 +10581,23 @@
         <v>742</v>
       </c>
       <c r="K93" s="9">
-        <f>F93/10</f>
+        <f t="shared" si="16"/>
         <v>32.200000000000003</v>
       </c>
       <c r="L93" s="9">
-        <f>G93/20</f>
+        <f t="shared" si="17"/>
         <v>22.15</v>
       </c>
       <c r="M93" s="9">
-        <f>H93/30</f>
+        <f t="shared" si="18"/>
         <v>19.166666666666668</v>
       </c>
       <c r="N93" s="9">
-        <f>I93/40</f>
+        <f t="shared" si="19"/>
         <v>15.95</v>
       </c>
       <c r="O93" s="9">
-        <f>J93/50</f>
+        <f t="shared" si="20"/>
         <v>14.84</v>
       </c>
       <c r="P93" s="3">
@@ -10608,16 +10620,16 @@
       </c>
     </row>
     <row r="94" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B94" s="1">
+      <c r="B94" s="51">
         <v>100</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="51">
         <v>5</v>
       </c>
-      <c r="D94" s="46">
+      <c r="D94" s="52">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="51">
         <v>51</v>
       </c>
       <c r="F94" s="2">
@@ -10636,23 +10648,23 @@
         <v>538</v>
       </c>
       <c r="K94" s="9">
-        <f>F94/10</f>
+        <f t="shared" si="16"/>
         <v>20.2</v>
       </c>
       <c r="L94" s="9">
-        <f>G94/20</f>
+        <f t="shared" si="17"/>
         <v>14.7</v>
       </c>
       <c r="M94" s="9">
-        <f>H94/30</f>
+        <f t="shared" si="18"/>
         <v>13.4</v>
       </c>
       <c r="N94" s="9">
-        <f>I94/40</f>
+        <f t="shared" si="19"/>
         <v>12.324999999999999</v>
       </c>
       <c r="O94" s="9">
-        <f>J94/50</f>
+        <f t="shared" si="20"/>
         <v>10.76</v>
       </c>
       <c r="P94" s="3">
@@ -10678,16 +10690,16 @@
       </c>
     </row>
     <row r="95" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B95" s="1">
+      <c r="B95" s="51">
         <v>100</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="51">
         <v>5</v>
       </c>
-      <c r="D95" s="46">
+      <c r="D95" s="52">
         <v>1.2</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="51">
         <v>0</v>
       </c>
       <c r="F95" s="2">
@@ -10706,23 +10718,23 @@
         <v>376</v>
       </c>
       <c r="K95" s="9">
-        <f>F95/10</f>
+        <f t="shared" si="16"/>
         <v>14.6</v>
       </c>
       <c r="L95" s="9">
-        <f>G95/20</f>
+        <f t="shared" si="17"/>
         <v>11.75</v>
       </c>
       <c r="M95" s="9">
-        <f>H95/30</f>
+        <f t="shared" si="18"/>
         <v>9.8333333333333339</v>
       </c>
       <c r="N95" s="9">
-        <f>I95/40</f>
+        <f t="shared" si="19"/>
         <v>8.5500000000000007</v>
       </c>
       <c r="O95" s="9">
-        <f>J95/50</f>
+        <f t="shared" si="20"/>
         <v>7.52</v>
       </c>
       <c r="P95" s="3">
@@ -10748,16 +10760,16 @@
       </c>
     </row>
     <row r="96" spans="2:38" x14ac:dyDescent="0.45">
-      <c r="B96" s="1">
+      <c r="B96" s="51">
         <v>100</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="51">
         <v>5</v>
       </c>
-      <c r="D96" s="46">
+      <c r="D96" s="52">
         <v>1.3</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="51">
         <v>0</v>
       </c>
       <c r="F96" s="2">
@@ -10776,23 +10788,23 @@
         <v>469</v>
       </c>
       <c r="K96" s="9">
-        <f>F96/10</f>
+        <f t="shared" si="16"/>
         <v>16.399999999999999</v>
       </c>
       <c r="L96" s="9">
-        <f>G96/20</f>
+        <f t="shared" si="17"/>
         <v>12.45</v>
       </c>
       <c r="M96" s="9">
-        <f>H96/30</f>
+        <f t="shared" si="18"/>
         <v>11.5</v>
       </c>
       <c r="N96" s="9">
-        <f>I96/40</f>
+        <f t="shared" si="19"/>
         <v>10.275</v>
       </c>
       <c r="O96" s="9">
-        <f>J96/50</f>
+        <f t="shared" si="20"/>
         <v>9.3800000000000008</v>
       </c>
       <c r="P96" s="3">
@@ -10818,16 +10830,16 @@
       </c>
     </row>
     <row r="97" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B97" s="1">
+      <c r="B97" s="51">
         <v>100</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="51">
         <v>5</v>
       </c>
-      <c r="D97" s="46">
+      <c r="D97" s="52">
         <v>1.4</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="51">
         <v>7</v>
       </c>
       <c r="F97" s="2">
@@ -10846,23 +10858,23 @@
         <v>391</v>
       </c>
       <c r="K97" s="9">
-        <f>F97/10</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="L97" s="9">
-        <f>G97/20</f>
+        <f t="shared" si="17"/>
         <v>10.050000000000001</v>
       </c>
       <c r="M97" s="9">
-        <f>H97/30</f>
+        <f t="shared" si="18"/>
         <v>9.3333333333333339</v>
       </c>
       <c r="N97" s="9">
-        <f>I97/40</f>
+        <f t="shared" si="19"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="O97" s="9">
-        <f>J97/50</f>
+        <f t="shared" si="20"/>
         <v>7.82</v>
       </c>
       <c r="P97" s="3">
@@ -10888,16 +10900,16 @@
       </c>
     </row>
     <row r="98" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B98" s="1">
+      <c r="B98" s="51">
         <v>100</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="51">
         <v>5</v>
       </c>
-      <c r="D98" s="46">
+      <c r="D98" s="52">
         <v>1.5</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="51">
         <v>14</v>
       </c>
       <c r="F98" s="2">
@@ -10916,23 +10928,23 @@
         <v>346</v>
       </c>
       <c r="K98" s="9">
-        <f>F98/10</f>
+        <f t="shared" si="16"/>
         <v>15.8</v>
       </c>
       <c r="L98" s="9">
-        <f>G98/20</f>
+        <f t="shared" si="17"/>
         <v>11.3</v>
       </c>
       <c r="M98" s="9">
-        <f>H98/30</f>
+        <f t="shared" si="18"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="N98" s="9">
-        <f>I98/40</f>
+        <f t="shared" si="19"/>
         <v>7.65</v>
       </c>
       <c r="O98" s="9">
-        <f>J98/50</f>
+        <f t="shared" si="20"/>
         <v>6.92</v>
       </c>
       <c r="P98" s="3">
@@ -10958,16 +10970,16 @@
       </c>
     </row>
     <row r="99" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B99" s="1">
+      <c r="B99" s="51">
         <v>100</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="51">
         <v>5</v>
       </c>
-      <c r="D99" s="46">
+      <c r="D99" s="52">
         <v>1.7999999999999998</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="51">
         <v>4</v>
       </c>
       <c r="F99" s="2">
@@ -10986,23 +10998,23 @@
         <v>353</v>
       </c>
       <c r="K99" s="9">
-        <f>F99/10</f>
+        <f t="shared" si="16"/>
         <v>14.5</v>
       </c>
       <c r="L99" s="9">
-        <f>G99/20</f>
+        <f t="shared" si="17"/>
         <v>9.25</v>
       </c>
       <c r="M99" s="9">
-        <f>H99/30</f>
+        <f t="shared" si="18"/>
         <v>8.5333333333333332</v>
       </c>
       <c r="N99" s="9">
-        <f>I99/40</f>
+        <f t="shared" si="19"/>
         <v>7.6749999999999998</v>
       </c>
       <c r="O99" s="9">
-        <f>J99/50</f>
+        <f t="shared" si="20"/>
         <v>7.06</v>
       </c>
       <c r="P99" s="3">
@@ -11028,16 +11040,16 @@
       </c>
     </row>
     <row r="100" spans="2:30" x14ac:dyDescent="0.45">
-      <c r="B100" s="1">
+      <c r="B100" s="51">
         <v>100</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="51">
         <v>5</v>
       </c>
-      <c r="D100" s="46">
+      <c r="D100" s="52">
         <v>1.9</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="51">
         <v>5</v>
       </c>
       <c r="F100" s="2">
@@ -11056,23 +11068,23 @@
         <v>265</v>
       </c>
       <c r="K100" s="9">
-        <f>F100/10</f>
+        <f t="shared" si="16"/>
         <v>15.1</v>
       </c>
       <c r="L100" s="9">
-        <f>G100/20</f>
+        <f t="shared" si="17"/>
         <v>8.85</v>
       </c>
       <c r="M100" s="9">
-        <f>H100/30</f>
+        <f t="shared" si="18"/>
         <v>6.833333333333333</v>
       </c>
       <c r="N100" s="9">
-        <f>I100/40</f>
+        <f t="shared" si="19"/>
         <v>5.9</v>
       </c>
       <c r="O100" s="9">
-        <f>J100/50</f>
+        <f t="shared" si="20"/>
         <v>5.3</v>
       </c>
       <c r="P100" s="3">
@@ -11126,23 +11138,23 @@
         <v>126</v>
       </c>
       <c r="K101" s="9">
-        <f>F101/10</f>
+        <f t="shared" si="16"/>
         <v>3.3</v>
       </c>
       <c r="L101" s="9">
-        <f>G101/20</f>
+        <f t="shared" si="17"/>
         <v>4.3</v>
       </c>
       <c r="M101" s="9">
-        <f>H101/30</f>
+        <f t="shared" si="18"/>
         <v>3.5666666666666669</v>
       </c>
       <c r="N101" s="9">
-        <f>I101/40</f>
+        <f t="shared" si="19"/>
         <v>2.95</v>
       </c>
       <c r="O101" s="9">
-        <f>J101/50</f>
+        <f t="shared" si="20"/>
         <v>2.52</v>
       </c>
       <c r="P101" s="3">
@@ -11202,23 +11214,23 @@
         <v>120</v>
       </c>
       <c r="K102" s="9">
-        <f>F102/10</f>
+        <f t="shared" si="16"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="L102" s="9">
-        <f>G102/20</f>
+        <f t="shared" si="17"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="M102" s="9">
-        <f>H102/30</f>
+        <f t="shared" si="18"/>
         <v>2.8333333333333335</v>
       </c>
       <c r="N102" s="9">
-        <f>I102/40</f>
+        <f t="shared" si="19"/>
         <v>2.625</v>
       </c>
       <c r="O102" s="9">
-        <f>J102/50</f>
+        <f t="shared" si="20"/>
         <v>2.4</v>
       </c>
       <c r="P102" s="3">
@@ -11278,23 +11290,23 @@
         <v>112</v>
       </c>
       <c r="K103" s="9">
-        <f>F103/10</f>
+        <f t="shared" si="16"/>
         <v>2.7</v>
       </c>
       <c r="L103" s="9">
-        <f>G103/20</f>
+        <f t="shared" si="17"/>
         <v>2.85</v>
       </c>
       <c r="M103" s="9">
-        <f>H103/30</f>
+        <f t="shared" si="18"/>
         <v>2.9666666666666668</v>
       </c>
       <c r="N103" s="9">
-        <f>I103/40</f>
+        <f t="shared" si="19"/>
         <v>2.5</v>
       </c>
       <c r="O103" s="9">
-        <f>J103/50</f>
+        <f t="shared" si="20"/>
         <v>2.2400000000000002</v>
       </c>
       <c r="P103" s="3">
@@ -11867,23 +11879,23 @@
         <v>402</v>
       </c>
       <c r="K114" s="9">
-        <f>F114/1</f>
+        <f t="shared" ref="K114:K123" si="21">F114/1</f>
         <v>25</v>
       </c>
       <c r="L114" s="9">
-        <f>G114/2</f>
+        <f t="shared" ref="L114:L123" si="22">G114/2</f>
         <v>63.5</v>
       </c>
       <c r="M114" s="9">
-        <f>H114/3</f>
+        <f t="shared" ref="M114:M123" si="23">H114/3</f>
         <v>73.333333333333329</v>
       </c>
       <c r="N114" s="9">
-        <f>I114/4</f>
+        <f t="shared" ref="N114:N123" si="24">I114/4</f>
         <v>85.75</v>
       </c>
       <c r="O114" s="9">
-        <f>J114/5</f>
+        <f t="shared" ref="O114:O126" si="25">J114/5</f>
         <v>80.400000000000006</v>
       </c>
       <c r="P114" s="3">
@@ -11922,23 +11934,23 @@
         <v>314</v>
       </c>
       <c r="K115" s="9">
-        <f>F115/1</f>
+        <f t="shared" si="21"/>
         <v>72</v>
       </c>
       <c r="L115" s="9">
-        <f>G115/2</f>
+        <f t="shared" si="22"/>
         <v>77</v>
       </c>
       <c r="M115" s="9">
-        <f>H115/3</f>
+        <f t="shared" si="23"/>
         <v>57.666666666666664</v>
       </c>
       <c r="N115" s="9">
-        <f>I115/4</f>
+        <f t="shared" si="24"/>
         <v>68</v>
       </c>
       <c r="O115" s="9">
-        <f>J115/5</f>
+        <f t="shared" si="25"/>
         <v>62.8</v>
       </c>
       <c r="P115" s="3">
@@ -11977,23 +11989,23 @@
         <v>260</v>
       </c>
       <c r="K116" s="9">
-        <f>F116/1</f>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="L116" s="9">
-        <f>G116/2</f>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
       <c r="M116" s="9">
-        <f>H116/3</f>
+        <f t="shared" si="23"/>
         <v>45.333333333333336</v>
       </c>
       <c r="N116" s="9">
-        <f>I116/4</f>
+        <f t="shared" si="24"/>
         <v>41</v>
       </c>
       <c r="O116" s="9">
-        <f>J116/5</f>
+        <f t="shared" si="25"/>
         <v>52</v>
       </c>
       <c r="P116" s="3">
@@ -12032,23 +12044,23 @@
         <v>162</v>
       </c>
       <c r="K117" s="9">
-        <f>F117/1</f>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="L117" s="9">
-        <f>G117/2</f>
+        <f t="shared" si="22"/>
         <v>25.5</v>
       </c>
       <c r="M117" s="9">
-        <f>H117/3</f>
+        <f t="shared" si="23"/>
         <v>45.333333333333336</v>
       </c>
       <c r="N117" s="9">
-        <f>I117/4</f>
+        <f t="shared" si="24"/>
         <v>39.25</v>
       </c>
       <c r="O117" s="9">
-        <f>J117/5</f>
+        <f t="shared" si="25"/>
         <v>32.4</v>
       </c>
       <c r="P117" s="3">
@@ -12087,23 +12099,23 @@
         <v>164</v>
       </c>
       <c r="K118" s="9">
-        <f>F118/1</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="L118" s="9">
-        <f>G118/2</f>
+        <f t="shared" si="22"/>
         <v>6.5</v>
       </c>
       <c r="M118" s="9">
-        <f>H118/3</f>
+        <f t="shared" si="23"/>
         <v>37.666666666666664</v>
       </c>
       <c r="N118" s="9">
-        <f>I118/4</f>
+        <f t="shared" si="24"/>
         <v>36.75</v>
       </c>
       <c r="O118" s="9">
-        <f>J118/5</f>
+        <f t="shared" si="25"/>
         <v>32.799999999999997</v>
       </c>
       <c r="P118" s="3">
@@ -12142,23 +12154,23 @@
         <v>232</v>
       </c>
       <c r="K119" s="9">
-        <f>F119/1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="L119" s="9">
-        <f>G119/2</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="M119" s="9">
-        <f>H119/3</f>
+        <f t="shared" si="23"/>
         <v>54.666666666666664</v>
       </c>
       <c r="N119" s="9">
-        <f>I119/4</f>
+        <f t="shared" si="24"/>
         <v>46</v>
       </c>
       <c r="O119" s="9">
-        <f>J119/5</f>
+        <f t="shared" si="25"/>
         <v>46.4</v>
       </c>
       <c r="P119" s="3">
@@ -12197,23 +12209,23 @@
         <v>114</v>
       </c>
       <c r="K120" s="9">
-        <f>F120/1</f>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="L120" s="9">
-        <f>G120/2</f>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="M120" s="9">
-        <f>H120/3</f>
+        <f t="shared" si="23"/>
         <v>27.666666666666668</v>
       </c>
       <c r="N120" s="9">
-        <f>I120/4</f>
+        <f t="shared" si="24"/>
         <v>23.25</v>
       </c>
       <c r="O120" s="9">
-        <f>J120/5</f>
+        <f t="shared" si="25"/>
         <v>22.8</v>
       </c>
       <c r="P120" s="3">
@@ -12252,23 +12264,23 @@
         <v>33</v>
       </c>
       <c r="K121" s="9">
-        <f>F121/1</f>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="L121" s="9">
-        <f>G121/2</f>
+        <f t="shared" si="22"/>
         <v>8.5</v>
       </c>
       <c r="M121" s="9">
-        <f>H121/3</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="N121" s="9">
-        <f>I121/4</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="O121" s="9">
-        <f>J121/5</f>
+        <f t="shared" si="25"/>
         <v>6.6</v>
       </c>
       <c r="P121" s="3">
@@ -12307,23 +12319,23 @@
         <v>130</v>
       </c>
       <c r="K122" s="9">
-        <f>F122/1</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="L122" s="9">
-        <f>G122/2</f>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="M122" s="9">
-        <f>H122/3</f>
+        <f t="shared" si="23"/>
         <v>23.666666666666668</v>
       </c>
       <c r="N122" s="9">
-        <f>I122/4</f>
+        <f t="shared" si="24"/>
         <v>26.5</v>
       </c>
       <c r="O122" s="9">
-        <f>J122/5</f>
+        <f t="shared" si="25"/>
         <v>26</v>
       </c>
       <c r="P122" s="3">
@@ -12362,23 +12374,23 @@
         <v>443</v>
       </c>
       <c r="K123" s="9">
-        <f>F123/1</f>
+        <f t="shared" si="21"/>
         <v>98</v>
       </c>
       <c r="L123" s="9">
-        <f>G123/2</f>
+        <f t="shared" si="22"/>
         <v>116</v>
       </c>
       <c r="M123" s="9">
-        <f>H123/3</f>
+        <f t="shared" si="23"/>
         <v>119.33333333333333</v>
       </c>
       <c r="N123" s="9">
-        <f>I123/4</f>
+        <f t="shared" si="24"/>
         <v>110.25</v>
       </c>
       <c r="O123" s="9">
-        <f>J123/5</f>
+        <f t="shared" si="25"/>
         <v>88.6</v>
       </c>
       <c r="P123" s="3">
@@ -12433,7 +12445,7 @@
         <v>43.75</v>
       </c>
       <c r="O124" s="9">
-        <f>J124/5</f>
+        <f t="shared" si="25"/>
         <v>35</v>
       </c>
       <c r="P124" s="3">
@@ -12488,7 +12500,7 @@
         <v>67.5</v>
       </c>
       <c r="O125" s="9">
-        <f>J125/5</f>
+        <f t="shared" si="25"/>
         <v>57.4</v>
       </c>
       <c r="P125" s="3">
@@ -12543,7 +12555,7 @@
         <v>12.75</v>
       </c>
       <c r="O126" s="9">
-        <f>J126/5</f>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="P126" s="3">
